--- a/SummaryofDiscoveries.xlsx
+++ b/SummaryofDiscoveries.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/0c0e969fead7e976/Documentos/Android Meus Documentos/PhD/Milestone2/COFRE/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="425" documentId="8_{19D57EC8-80E3-4FA3-B2A2-3749828739B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CDEAB1B5-88A7-48A4-8E32-2690DF193859}"/>
+  <xr:revisionPtr revIDLastSave="455" documentId="8_{19D57EC8-80E3-4FA3-B2A2-3749828739B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FF1FCF69-7CB5-4765-9628-16AEB237A4CC}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{823FC9CB-A58B-431E-921A-A00C13A21F22}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1216" uniqueCount="289">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1210" uniqueCount="286">
   <si>
     <t>DQI#</t>
   </si>
@@ -69,12 +69,6 @@
     <t>Columns - Attributes</t>
   </si>
   <si>
-    <t>Ambiguous Data</t>
-  </si>
-  <si>
-    <t>Accuracy, Consistency</t>
-  </si>
-  <si>
     <t>check_if_categorical</t>
   </si>
   <si>
@@ -162,9 +156,6 @@
     <t>Missing Data</t>
   </si>
   <si>
-    <t>Completeness</t>
-  </si>
-  <si>
     <t>check_string</t>
   </si>
   <si>
@@ -180,9 +171,6 @@
     <t>Description</t>
   </si>
   <si>
-    <t>Non-String Data Type</t>
-  </si>
-  <si>
     <t>Non-string values</t>
   </si>
   <si>
@@ -468,9 +456,6 @@
     <t>None, nan, '', ' '</t>
   </si>
   <si>
-    <t>'', 'Null', None, ' " "', ' null'</t>
-  </si>
-  <si>
     <t>check_month</t>
   </si>
   <si>
@@ -904,6 +889,12 @@
   </si>
   <si>
     <t xml:space="preserve">DQ Issue Description </t>
+  </si>
+  <si>
+    <t>Accuracy, Completeness</t>
+  </si>
+  <si>
+    <t>?', '', 'Null', None, ' " "', ' null'</t>
   </si>
 </sst>
 </file>
@@ -1054,6 +1045,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1373,9 +1368,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7720AB8-E6AD-40AF-8266-866239E91318}">
-  <dimension ref="A1:H60"/>
+  <dimension ref="A1:H59"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="A24" sqref="A24:XFD24"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="27.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -1412,7 +1409,7 @@
         <v>6</v>
       </c>
       <c r="H1" s="9" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.35">
@@ -1420,25 +1417,25 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C2" t="s">
+        <v>284</v>
+      </c>
+      <c r="D2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G2" t="s">
         <v>41</v>
       </c>
-      <c r="D2" t="s">
-        <v>28</v>
-      </c>
-      <c r="E2">
-        <v>1</v>
-      </c>
-      <c r="F2" t="s">
-        <v>29</v>
-      </c>
-      <c r="G2" t="s">
-        <v>44</v>
-      </c>
       <c r="H2" s="2" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.35">
@@ -1446,25 +1443,25 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C3" t="s">
-        <v>41</v>
+        <v>284</v>
       </c>
       <c r="D3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E3">
         <v>2</v>
       </c>
       <c r="F3" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G3" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.35">
@@ -1472,25 +1469,25 @@
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C4" t="s">
-        <v>41</v>
+        <v>284</v>
       </c>
       <c r="D4" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="E4">
         <v>3</v>
       </c>
       <c r="F4" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="G4" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.35">
@@ -1498,25 +1495,25 @@
         <v>1</v>
       </c>
       <c r="B5" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C5" t="s">
-        <v>41</v>
+        <v>284</v>
       </c>
       <c r="D5" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="E5">
         <v>4</v>
       </c>
       <c r="F5" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="G5" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.35">
@@ -1524,25 +1521,25 @@
         <v>1</v>
       </c>
       <c r="B6" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C6" t="s">
-        <v>41</v>
+        <v>284</v>
       </c>
       <c r="D6" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="E6">
         <v>5</v>
       </c>
       <c r="F6" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="G6" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.35">
@@ -1550,25 +1547,25 @@
         <v>1</v>
       </c>
       <c r="B7" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C7" t="s">
-        <v>41</v>
+        <v>284</v>
       </c>
       <c r="D7" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E7">
         <v>6</v>
       </c>
       <c r="F7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G7" t="s">
-        <v>44</v>
-      </c>
-      <c r="H7" s="2" t="s">
-        <v>143</v>
+        <v>41</v>
+      </c>
+      <c r="H7" s="11" t="s">
+        <v>285</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.35">
@@ -1576,25 +1573,25 @@
         <v>1</v>
       </c>
       <c r="B8" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C8" t="s">
-        <v>41</v>
+        <v>284</v>
       </c>
       <c r="D8" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="E8">
         <v>7</v>
       </c>
       <c r="F8" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="G8" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.35">
@@ -1602,25 +1599,25 @@
         <v>1</v>
       </c>
       <c r="B9" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C9" t="s">
-        <v>41</v>
+        <v>284</v>
       </c>
       <c r="D9" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="E9">
         <v>8</v>
       </c>
       <c r="F9" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="G9" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.35">
@@ -1628,25 +1625,25 @@
         <v>1</v>
       </c>
       <c r="B10" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C10" t="s">
-        <v>41</v>
+        <v>284</v>
       </c>
       <c r="D10" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="E10">
         <v>9</v>
       </c>
       <c r="F10" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="G10" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.35">
@@ -1654,25 +1651,25 @@
         <v>1</v>
       </c>
       <c r="B11" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C11" t="s">
-        <v>41</v>
+        <v>284</v>
       </c>
       <c r="D11" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="E11">
         <v>10</v>
       </c>
       <c r="F11" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="G11" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.35">
@@ -1680,25 +1677,25 @@
         <v>1</v>
       </c>
       <c r="B12" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C12" t="s">
-        <v>41</v>
+        <v>284</v>
       </c>
       <c r="D12" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="E12">
         <v>11</v>
       </c>
       <c r="F12" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="G12" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.35">
@@ -1706,25 +1703,25 @@
         <v>1</v>
       </c>
       <c r="B13" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C13" t="s">
-        <v>41</v>
+        <v>284</v>
       </c>
       <c r="D13" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="E13">
         <v>12.5</v>
       </c>
       <c r="F13" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="G13" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.35">
@@ -1732,25 +1729,25 @@
         <v>1</v>
       </c>
       <c r="B14" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C14" t="s">
+        <v>284</v>
+      </c>
+      <c r="D14" t="s">
+        <v>78</v>
+      </c>
+      <c r="E14">
+        <v>13</v>
+      </c>
+      <c r="F14" t="s">
+        <v>79</v>
+      </c>
+      <c r="G14" t="s">
         <v>41</v>
       </c>
-      <c r="D14" t="s">
-        <v>82</v>
-      </c>
-      <c r="E14">
-        <v>13</v>
-      </c>
-      <c r="F14" t="s">
-        <v>83</v>
-      </c>
-      <c r="G14" t="s">
-        <v>44</v>
-      </c>
       <c r="H14" s="2" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.35">
@@ -1758,25 +1755,25 @@
         <v>1</v>
       </c>
       <c r="B15" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C15" t="s">
-        <v>41</v>
+        <v>284</v>
       </c>
       <c r="D15" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="E15">
         <v>14</v>
       </c>
       <c r="F15" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="G15" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.35">
@@ -1784,25 +1781,25 @@
         <v>1</v>
       </c>
       <c r="B16" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C16" t="s">
-        <v>41</v>
+        <v>284</v>
       </c>
       <c r="D16" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="E16">
         <v>15</v>
       </c>
       <c r="F16" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="G16" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.35">
@@ -1810,25 +1807,25 @@
         <v>1</v>
       </c>
       <c r="B17" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C17" t="s">
-        <v>41</v>
+        <v>284</v>
       </c>
       <c r="D17" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E17">
         <v>16</v>
       </c>
       <c r="F17" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="G17" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.35">
@@ -1836,25 +1833,25 @@
         <v>1</v>
       </c>
       <c r="B18" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C18" t="s">
-        <v>41</v>
+        <v>284</v>
       </c>
       <c r="D18" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="E18">
         <v>17</v>
       </c>
       <c r="F18" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="G18" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.35">
@@ -1862,25 +1859,25 @@
         <v>1</v>
       </c>
       <c r="B19" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C19" t="s">
-        <v>41</v>
+        <v>284</v>
       </c>
       <c r="D19" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="E19">
         <v>18</v>
       </c>
       <c r="F19" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="G19" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.35">
@@ -1888,25 +1885,25 @@
         <v>1</v>
       </c>
       <c r="B20" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C20" t="s">
-        <v>41</v>
+        <v>284</v>
       </c>
       <c r="D20" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="E20">
         <v>19</v>
       </c>
       <c r="F20" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="G20" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.35">
@@ -1914,25 +1911,25 @@
         <v>1</v>
       </c>
       <c r="B21" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C21" t="s">
-        <v>41</v>
+        <v>284</v>
       </c>
       <c r="D21" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="E21">
         <v>20</v>
       </c>
       <c r="F21" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="G21" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.35">
@@ -1940,25 +1937,25 @@
         <v>1</v>
       </c>
       <c r="B22" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C22" t="s">
-        <v>41</v>
+        <v>284</v>
       </c>
       <c r="D22" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="E22">
         <v>21</v>
       </c>
       <c r="F22" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="G22" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.35">
@@ -1966,51 +1963,51 @@
         <v>1</v>
       </c>
       <c r="B23" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C23" t="s">
-        <v>41</v>
+        <v>284</v>
       </c>
       <c r="D23" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="E23">
         <v>22</v>
       </c>
       <c r="F23" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="G23" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A24">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B24" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="C24" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="D24" t="s">
-        <v>12</v>
+        <v>66</v>
       </c>
       <c r="E24">
-        <v>6</v>
+        <v>12.5</v>
       </c>
       <c r="F24" t="s">
-        <v>13</v>
+        <v>67</v>
       </c>
       <c r="G24" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="H24" s="2" t="s">
-        <v>15</v>
+        <v>164</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.35">
@@ -2018,25 +2015,25 @@
         <v>5</v>
       </c>
       <c r="B25" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C25" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D25" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="E25">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="F25" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="G25" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="H25" s="2" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.35">
@@ -2044,25 +2041,25 @@
         <v>5</v>
       </c>
       <c r="B26" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C26" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D26" t="s">
         <v>82</v>
       </c>
       <c r="E26">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F26" t="s">
         <v>83</v>
       </c>
       <c r="G26" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="H26" s="2" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.35">
@@ -2070,25 +2067,25 @@
         <v>5</v>
       </c>
       <c r="B27" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C27" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D27" t="s">
         <v>86</v>
       </c>
       <c r="E27">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F27" t="s">
         <v>87</v>
       </c>
       <c r="G27" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="H27" s="2" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.35">
@@ -2096,259 +2093,259 @@
         <v>5</v>
       </c>
       <c r="B28" t="s">
+        <v>16</v>
+      </c>
+      <c r="C28" t="s">
+        <v>17</v>
+      </c>
+      <c r="D28" t="s">
         <v>18</v>
       </c>
-      <c r="C28" t="s">
+      <c r="E28">
+        <v>16</v>
+      </c>
+      <c r="F28" t="s">
         <v>19</v>
       </c>
-      <c r="D28" t="s">
-        <v>90</v>
-      </c>
-      <c r="E28">
-        <v>15</v>
-      </c>
-      <c r="F28" t="s">
-        <v>91</v>
-      </c>
       <c r="G28" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="H28" s="2" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+      <c r="A29">
+        <v>6</v>
+      </c>
+      <c r="B29" t="s">
+        <v>169</v>
+      </c>
+      <c r="C29" t="s">
+        <v>170</v>
+      </c>
+      <c r="D29" t="s">
+        <v>144</v>
+      </c>
+      <c r="E29">
+        <v>9</v>
+      </c>
+      <c r="F29" t="s">
+        <v>145</v>
+      </c>
+      <c r="G29" t="s">
+        <v>171</v>
+      </c>
+      <c r="H29" s="2" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A29">
-        <v>5</v>
-      </c>
-      <c r="B29" t="s">
-        <v>18</v>
-      </c>
-      <c r="C29" t="s">
-        <v>19</v>
-      </c>
-      <c r="D29" t="s">
-        <v>20</v>
-      </c>
-      <c r="E29">
-        <v>16</v>
-      </c>
-      <c r="F29" t="s">
-        <v>21</v>
-      </c>
-      <c r="G29" t="s">
-        <v>22</v>
-      </c>
-      <c r="H29" s="2" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A30">
         <v>6</v>
       </c>
       <c r="B30" t="s">
+        <v>169</v>
+      </c>
+      <c r="C30" t="s">
+        <v>170</v>
+      </c>
+      <c r="D30" t="s">
+        <v>147</v>
+      </c>
+      <c r="E30">
+        <v>10</v>
+      </c>
+      <c r="F30" t="s">
+        <v>148</v>
+      </c>
+      <c r="G30" t="s">
+        <v>173</v>
+      </c>
+      <c r="H30" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="C30" t="s">
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A31">
+        <v>9</v>
+      </c>
+      <c r="B31" t="s">
+        <v>48</v>
+      </c>
+      <c r="C31" t="s">
+        <v>49</v>
+      </c>
+      <c r="D31" t="s">
+        <v>45</v>
+      </c>
+      <c r="E31">
+        <v>4</v>
+      </c>
+      <c r="F31" t="s">
+        <v>46</v>
+      </c>
+      <c r="G31" t="s">
+        <v>50</v>
+      </c>
+      <c r="H31" s="2" t="s">
         <v>175</v>
       </c>
-      <c r="D30" t="s">
-        <v>149</v>
-      </c>
-      <c r="E30">
+    </row>
+    <row r="32" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A32">
+        <v>13</v>
+      </c>
+      <c r="B32" t="s">
+        <v>176</v>
+      </c>
+      <c r="C32" t="s">
+        <v>177</v>
+      </c>
+      <c r="D32" t="s">
+        <v>144</v>
+      </c>
+      <c r="E32">
         <v>9</v>
       </c>
-      <c r="F30" t="s">
+      <c r="F32" t="s">
+        <v>145</v>
+      </c>
+      <c r="G32" t="s">
+        <v>178</v>
+      </c>
+      <c r="H32" s="2" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A33">
+        <v>13</v>
+      </c>
+      <c r="B33" t="s">
+        <v>176</v>
+      </c>
+      <c r="C33" t="s">
+        <v>177</v>
+      </c>
+      <c r="D33" t="s">
+        <v>147</v>
+      </c>
+      <c r="E33">
+        <v>10</v>
+      </c>
+      <c r="F33" t="s">
+        <v>148</v>
+      </c>
+      <c r="G33" t="s">
+        <v>180</v>
+      </c>
+      <c r="H33" s="2" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A34">
+        <v>13</v>
+      </c>
+      <c r="B34" t="s">
+        <v>176</v>
+      </c>
+      <c r="C34" t="s">
+        <v>177</v>
+      </c>
+      <c r="D34" t="s">
         <v>150</v>
       </c>
-      <c r="G30" t="s">
-        <v>176</v>
-      </c>
-      <c r="H30" s="2" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A31">
-        <v>6</v>
-      </c>
-      <c r="B31" t="s">
-        <v>174</v>
-      </c>
-      <c r="C31" t="s">
-        <v>175</v>
-      </c>
-      <c r="D31" t="s">
-        <v>152</v>
-      </c>
-      <c r="E31">
-        <v>10</v>
-      </c>
-      <c r="F31" t="s">
-        <v>153</v>
-      </c>
-      <c r="G31" t="s">
-        <v>178</v>
-      </c>
-      <c r="H31" s="2" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A32">
+      <c r="E34">
+        <v>11</v>
+      </c>
+      <c r="F34" t="s">
+        <v>151</v>
+      </c>
+      <c r="G34" t="s">
+        <v>182</v>
+      </c>
+      <c r="H34" s="2" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A35">
+        <v>14</v>
+      </c>
+      <c r="B35" t="s">
+        <v>184</v>
+      </c>
+      <c r="C35" t="s">
+        <v>25</v>
+      </c>
+      <c r="D35" t="s">
+        <v>144</v>
+      </c>
+      <c r="E35">
         <v>9</v>
       </c>
-      <c r="B32" t="s">
-        <v>52</v>
-      </c>
-      <c r="C32" t="s">
-        <v>53</v>
-      </c>
-      <c r="D32" t="s">
-        <v>49</v>
-      </c>
-      <c r="E32">
-        <v>4</v>
-      </c>
-      <c r="F32" t="s">
-        <v>50</v>
-      </c>
-      <c r="G32" t="s">
-        <v>54</v>
-      </c>
-      <c r="H32" s="2" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A33">
-        <v>13</v>
-      </c>
-      <c r="B33" t="s">
-        <v>181</v>
-      </c>
-      <c r="C33" t="s">
-        <v>182</v>
-      </c>
-      <c r="D33" t="s">
-        <v>149</v>
-      </c>
-      <c r="E33">
-        <v>9</v>
-      </c>
-      <c r="F33" t="s">
-        <v>150</v>
-      </c>
-      <c r="G33" t="s">
-        <v>183</v>
-      </c>
-      <c r="H33" s="2" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" ht="72.5" x14ac:dyDescent="0.35">
-      <c r="A34">
-        <v>13</v>
-      </c>
-      <c r="B34" t="s">
-        <v>181</v>
-      </c>
-      <c r="C34" t="s">
-        <v>182</v>
-      </c>
-      <c r="D34" t="s">
-        <v>152</v>
-      </c>
-      <c r="E34">
-        <v>10</v>
-      </c>
-      <c r="F34" t="s">
-        <v>153</v>
-      </c>
-      <c r="G34" t="s">
+      <c r="F35" t="s">
+        <v>145</v>
+      </c>
+      <c r="G35" t="s">
         <v>185</v>
       </c>
-      <c r="H34" s="2" t="s">
+      <c r="H35" s="2" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A35">
-        <v>13</v>
-      </c>
-      <c r="B35" t="s">
-        <v>181</v>
-      </c>
-      <c r="C35" t="s">
-        <v>182</v>
-      </c>
-      <c r="D35" t="s">
-        <v>155</v>
-      </c>
-      <c r="E35">
-        <v>11</v>
-      </c>
-      <c r="F35" t="s">
-        <v>156</v>
-      </c>
-      <c r="G35" t="s">
-        <v>187</v>
-      </c>
-      <c r="H35" s="2" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A36">
         <v>14</v>
       </c>
       <c r="B36" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="C36" t="s">
+        <v>25</v>
+      </c>
+      <c r="D36" t="s">
+        <v>147</v>
+      </c>
+      <c r="E36">
+        <v>10</v>
+      </c>
+      <c r="F36" t="s">
+        <v>148</v>
+      </c>
+      <c r="G36" t="s">
+        <v>187</v>
+      </c>
+      <c r="H36" s="2" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A37">
+        <v>15</v>
+      </c>
+      <c r="B37" t="s">
+        <v>54</v>
+      </c>
+      <c r="C37" t="s">
+        <v>55</v>
+      </c>
+      <c r="D37" t="s">
+        <v>26</v>
+      </c>
+      <c r="E37">
+        <v>1</v>
+      </c>
+      <c r="F37" t="s">
         <v>27</v>
       </c>
-      <c r="D36" t="s">
-        <v>149</v>
-      </c>
-      <c r="E36">
-        <v>9</v>
-      </c>
-      <c r="F36" t="s">
-        <v>150</v>
-      </c>
-      <c r="G36" t="s">
-        <v>190</v>
-      </c>
-      <c r="H36" s="2" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" ht="29" x14ac:dyDescent="0.35">
-      <c r="A37">
-        <v>14</v>
-      </c>
-      <c r="B37" t="s">
-        <v>189</v>
-      </c>
-      <c r="C37" t="s">
-        <v>27</v>
-      </c>
-      <c r="D37" t="s">
-        <v>152</v>
-      </c>
-      <c r="E37">
-        <v>10</v>
-      </c>
-      <c r="F37" t="s">
-        <v>153</v>
-      </c>
       <c r="G37" t="s">
-        <v>192</v>
-      </c>
-      <c r="H37" s="2" t="s">
-        <v>193</v>
+        <v>56</v>
+      </c>
+      <c r="H37" s="10">
+        <v>-1</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.35">
@@ -2356,25 +2353,25 @@
         <v>15</v>
       </c>
       <c r="B38" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C38" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="D38" t="s">
-        <v>28</v>
+        <v>117</v>
       </c>
       <c r="E38">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F38" t="s">
-        <v>29</v>
+        <v>126</v>
       </c>
       <c r="G38" t="s">
-        <v>60</v>
-      </c>
-      <c r="H38" s="10">
-        <v>-1</v>
+        <v>189</v>
+      </c>
+      <c r="H38" s="2" t="s">
+        <v>190</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.35">
@@ -2382,25 +2379,25 @@
         <v>15</v>
       </c>
       <c r="B39" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C39" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="D39" t="s">
-        <v>121</v>
+        <v>45</v>
       </c>
       <c r="E39">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F39" t="s">
-        <v>130</v>
+        <v>46</v>
       </c>
       <c r="G39" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="H39" s="2" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.35">
@@ -2408,25 +2405,25 @@
         <v>15</v>
       </c>
       <c r="B40" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C40" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="D40" t="s">
-        <v>49</v>
+        <v>139</v>
       </c>
       <c r="E40">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="F40" t="s">
-        <v>50</v>
+        <v>140</v>
       </c>
       <c r="G40" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="H40" s="2" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.35">
@@ -2434,25 +2431,25 @@
         <v>15</v>
       </c>
       <c r="B41" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C41" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="D41" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="E41">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F41" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="G41" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="H41" s="2" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.35">
@@ -2460,25 +2457,25 @@
         <v>15</v>
       </c>
       <c r="B42" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C42" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="D42" t="s">
-        <v>147</v>
+        <v>66</v>
       </c>
       <c r="E42">
-        <v>8</v>
+        <v>12.5</v>
       </c>
       <c r="F42" t="s">
-        <v>148</v>
+        <v>67</v>
       </c>
       <c r="G42" t="s">
-        <v>200</v>
+        <v>76</v>
       </c>
       <c r="H42" s="2" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.35">
@@ -2486,25 +2483,25 @@
         <v>15</v>
       </c>
       <c r="B43" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C43" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="D43" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="E43">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="F43" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="G43" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="H43" s="2" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.35">
@@ -2512,77 +2509,77 @@
         <v>15</v>
       </c>
       <c r="B44" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C44" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="D44" t="s">
         <v>82</v>
       </c>
       <c r="E44">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F44" t="s">
         <v>83</v>
       </c>
       <c r="G44" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="H44" s="2" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.35">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A45">
         <v>15</v>
       </c>
       <c r="B45" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C45" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="D45" t="s">
         <v>86</v>
       </c>
       <c r="E45">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F45" t="s">
         <v>87</v>
       </c>
       <c r="G45" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="H45" s="2" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A46">
         <v>15</v>
       </c>
       <c r="B46" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C46" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="D46" t="s">
-        <v>90</v>
+        <v>18</v>
       </c>
       <c r="E46">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F46" t="s">
-        <v>91</v>
+        <v>19</v>
       </c>
       <c r="G46" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="H46" s="2" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.35">
@@ -2590,181 +2587,181 @@
         <v>15</v>
       </c>
       <c r="B47" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C47" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="D47" t="s">
-        <v>20</v>
+        <v>96</v>
       </c>
       <c r="E47">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F47" t="s">
-        <v>21</v>
+        <v>97</v>
       </c>
       <c r="G47" t="s">
-        <v>80</v>
+        <v>202</v>
       </c>
       <c r="H47" s="2" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.35">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A48">
         <v>15</v>
       </c>
       <c r="B48" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C48" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="D48" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="E48">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F48" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="G48" t="s">
-        <v>207</v>
+        <v>94</v>
       </c>
       <c r="H48" s="2" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A49">
         <v>15</v>
       </c>
       <c r="B49" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C49" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="D49" t="s">
-        <v>96</v>
+        <v>157</v>
       </c>
       <c r="E49">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F49" t="s">
-        <v>97</v>
+        <v>158</v>
       </c>
       <c r="G49" t="s">
-        <v>98</v>
+        <v>205</v>
       </c>
       <c r="H49" s="2" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A50">
         <v>15</v>
       </c>
       <c r="B50" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C50" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="D50" t="s">
-        <v>162</v>
+        <v>100</v>
       </c>
       <c r="E50">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F50" t="s">
-        <v>163</v>
+        <v>101</v>
       </c>
       <c r="G50" t="s">
-        <v>210</v>
+        <v>102</v>
       </c>
       <c r="H50" s="2" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8" ht="72.5" x14ac:dyDescent="0.35">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" ht="232" x14ac:dyDescent="0.35">
       <c r="A51">
         <v>15</v>
       </c>
       <c r="B51" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C51" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="D51" t="s">
-        <v>104</v>
+        <v>160</v>
       </c>
       <c r="E51">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F51" t="s">
-        <v>105</v>
+        <v>161</v>
       </c>
       <c r="G51" t="s">
-        <v>106</v>
+        <v>208</v>
       </c>
       <c r="H51" s="2" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8" ht="232" x14ac:dyDescent="0.35">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A52">
         <v>15</v>
       </c>
       <c r="B52" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C52" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="D52" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="E52">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F52" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="G52" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="H52" s="2" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A53">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B53" t="s">
-        <v>58</v>
+        <v>24</v>
       </c>
       <c r="C53" t="s">
-        <v>59</v>
+        <v>25</v>
       </c>
       <c r="D53" t="s">
-        <v>167</v>
+        <v>26</v>
       </c>
       <c r="E53">
-        <v>22</v>
+        <v>1</v>
       </c>
       <c r="F53" t="s">
-        <v>168</v>
+        <v>27</v>
       </c>
       <c r="G53" t="s">
-        <v>215</v>
+        <v>28</v>
       </c>
       <c r="H53" s="2" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.35">
@@ -2772,25 +2769,25 @@
         <v>17</v>
       </c>
       <c r="B54" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C54" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D54" t="s">
+        <v>29</v>
+      </c>
+      <c r="E54">
+        <v>2</v>
+      </c>
+      <c r="F54" t="s">
+        <v>30</v>
+      </c>
+      <c r="G54" t="s">
         <v>28</v>
       </c>
-      <c r="E54">
-        <v>1</v>
-      </c>
-      <c r="F54" t="s">
-        <v>29</v>
-      </c>
-      <c r="G54" t="s">
-        <v>30</v>
-      </c>
       <c r="H54" s="2" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.35">
@@ -2798,25 +2795,25 @@
         <v>17</v>
       </c>
       <c r="B55" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C55" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D55" t="s">
-        <v>31</v>
+        <v>117</v>
       </c>
       <c r="E55">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F55" t="s">
-        <v>32</v>
+        <v>126</v>
       </c>
       <c r="G55" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H55" s="2" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.35">
@@ -2824,25 +2821,25 @@
         <v>17</v>
       </c>
       <c r="B56" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C56" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D56" t="s">
-        <v>121</v>
+        <v>45</v>
       </c>
       <c r="E56">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F56" t="s">
-        <v>130</v>
+        <v>46</v>
       </c>
       <c r="G56" t="s">
-        <v>30</v>
-      </c>
-      <c r="H56" s="2" t="s">
-        <v>217</v>
+        <v>213</v>
+      </c>
+      <c r="H56" s="11" t="s">
+        <v>214</v>
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.35">
@@ -2850,25 +2847,25 @@
         <v>17</v>
       </c>
       <c r="B57" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C57" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D57" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="E57">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F57" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="G57" t="s">
-        <v>218</v>
-      </c>
-      <c r="H57" s="11" t="s">
-        <v>219</v>
+        <v>44</v>
+      </c>
+      <c r="H57" s="2" t="s">
+        <v>215</v>
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.35">
@@ -2876,77 +2873,51 @@
         <v>17</v>
       </c>
       <c r="B58" t="s">
-        <v>47</v>
+        <v>24</v>
       </c>
       <c r="C58" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D58" t="s">
-        <v>42</v>
+        <v>96</v>
       </c>
       <c r="E58">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="F58" t="s">
-        <v>43</v>
+        <v>97</v>
       </c>
       <c r="G58" t="s">
-        <v>48</v>
+        <v>98</v>
       </c>
       <c r="H58" s="2" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A59">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B59" t="s">
-        <v>26</v>
+        <v>52</v>
       </c>
       <c r="C59" t="s">
-        <v>27</v>
+        <v>49</v>
       </c>
       <c r="D59" t="s">
-        <v>100</v>
+        <v>45</v>
       </c>
       <c r="E59">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="F59" t="s">
-        <v>101</v>
+        <v>46</v>
       </c>
       <c r="G59" t="s">
-        <v>102</v>
+        <v>53</v>
       </c>
       <c r="H59" s="2" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A60">
-        <v>19</v>
-      </c>
-      <c r="B60" t="s">
-        <v>56</v>
-      </c>
-      <c r="C60" t="s">
-        <v>53</v>
-      </c>
-      <c r="D60" t="s">
-        <v>49</v>
-      </c>
-      <c r="E60">
-        <v>4</v>
-      </c>
-      <c r="F60" t="s">
-        <v>50</v>
-      </c>
-      <c r="G60" t="s">
-        <v>57</v>
-      </c>
-      <c r="H60" s="2" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
     </row>
   </sheetData>
@@ -2956,22 +2927,22 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D678377-0DDD-4836-9CC1-EABE4882226D}">
-  <dimension ref="A1:J108"/>
+  <dimension ref="A1:J107"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A70" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C116" sqref="C116"/>
+    <sheetView tabSelected="1" topLeftCell="A64" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D93" sqref="D93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="5.7265625" customWidth="1"/>
     <col min="2" max="2" width="26.1796875" customWidth="1"/>
-    <col min="3" max="3" width="24.81640625" customWidth="1"/>
+    <col min="3" max="3" width="21.54296875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="24" customWidth="1"/>
     <col min="5" max="5" width="3.6328125" customWidth="1"/>
     <col min="6" max="6" width="19.7265625" customWidth="1"/>
     <col min="7" max="7" width="35.1796875" customWidth="1"/>
-    <col min="8" max="8" width="10" customWidth="1"/>
+    <col min="8" max="8" width="26.6328125" customWidth="1"/>
     <col min="9" max="9" width="45.6328125" customWidth="1"/>
     <col min="10" max="10" width="42.54296875" customWidth="1"/>
   </cols>
@@ -2981,7 +2952,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="C1" t="s">
         <v>2</v>
@@ -3009,3267 +2980,3267 @@
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A2" s="18">
+      <c r="A2" s="4">
+        <v>1</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>284</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="E2" s="4">
+        <v>18</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="J2" s="4" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A3" s="4">
+        <v>1</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>284</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="E3" s="4">
+        <v>20</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="I3" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="J3" s="4" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A4" s="4">
+        <v>1</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>284</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" s="4">
+        <v>6</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="I4" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="J4" s="4" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A5" s="4">
+        <v>1</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>284</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" s="4">
+        <v>6</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="I5" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="J5" s="4" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A6" s="4">
+        <v>1</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>284</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E6" s="4">
+        <v>6</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="I6" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B2" s="18" t="s">
-        <v>58</v>
-      </c>
-      <c r="C2" s="18" t="s">
-        <v>59</v>
-      </c>
-      <c r="D2" s="18" t="s">
-        <v>28</v>
-      </c>
-      <c r="E2" s="18">
-        <v>1</v>
-      </c>
-      <c r="F2" s="18" t="s">
-        <v>29</v>
-      </c>
-      <c r="G2" s="18" t="s">
-        <v>60</v>
-      </c>
-      <c r="H2" s="18">
-        <v>-200</v>
-      </c>
-      <c r="I2" s="18" t="s">
-        <v>61</v>
-      </c>
-      <c r="J2" s="17" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A3" s="18">
+      <c r="J6" s="4" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A7" s="4">
+        <v>1</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>284</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E7" s="4">
+        <v>6</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="H7" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="I7" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="18" t="s">
-        <v>58</v>
-      </c>
-      <c r="C3" s="18" t="s">
-        <v>59</v>
-      </c>
-      <c r="D3" s="18" t="s">
-        <v>28</v>
-      </c>
-      <c r="E3" s="18">
-        <v>1</v>
-      </c>
-      <c r="F3" s="18" t="s">
-        <v>29</v>
-      </c>
-      <c r="G3" s="18" t="s">
-        <v>60</v>
-      </c>
-      <c r="H3" s="18">
-        <v>-200</v>
-      </c>
-      <c r="I3" s="18" t="s">
-        <v>61</v>
-      </c>
-      <c r="J3" s="17" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A4" s="14">
-        <v>15</v>
-      </c>
-      <c r="B4" s="14" t="s">
-        <v>58</v>
-      </c>
-      <c r="C4" s="14" t="s">
-        <v>59</v>
-      </c>
-      <c r="D4" s="14" t="s">
-        <v>82</v>
-      </c>
-      <c r="E4" s="14">
-        <v>13</v>
-      </c>
-      <c r="F4" s="14" t="s">
-        <v>83</v>
-      </c>
-      <c r="G4" s="14" t="s">
-        <v>80</v>
-      </c>
-      <c r="H4" s="14" t="s">
-        <v>85</v>
-      </c>
-      <c r="I4" s="14" t="s">
-        <v>76</v>
-      </c>
-      <c r="J4" s="15" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A5" s="14">
-        <v>15</v>
-      </c>
-      <c r="B5" s="14" t="s">
-        <v>58</v>
-      </c>
-      <c r="C5" s="14" t="s">
-        <v>59</v>
-      </c>
-      <c r="D5" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="E5" s="14">
-        <v>16</v>
-      </c>
-      <c r="F5" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="G5" s="14" t="s">
-        <v>80</v>
-      </c>
-      <c r="H5" s="14" t="s">
-        <v>95</v>
-      </c>
-      <c r="I5" s="14" t="s">
-        <v>76</v>
-      </c>
-      <c r="J5" s="15" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A6" s="14">
-        <v>15</v>
-      </c>
-      <c r="B6" s="14" t="s">
-        <v>58</v>
-      </c>
-      <c r="C6" s="14" t="s">
-        <v>59</v>
-      </c>
-      <c r="D6" s="14" t="s">
-        <v>70</v>
-      </c>
-      <c r="E6" s="14">
-        <v>12.5</v>
-      </c>
-      <c r="F6" s="14" t="s">
-        <v>71</v>
-      </c>
-      <c r="G6" s="14" t="s">
-        <v>80</v>
-      </c>
-      <c r="H6" s="16" t="s">
-        <v>81</v>
-      </c>
-      <c r="I6" s="14" t="s">
-        <v>76</v>
-      </c>
-      <c r="J6" s="15" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A7" s="14">
-        <v>15</v>
-      </c>
-      <c r="B7" s="14" t="s">
-        <v>58</v>
-      </c>
-      <c r="C7" s="14" t="s">
-        <v>59</v>
-      </c>
-      <c r="D7" s="14" t="s">
-        <v>86</v>
-      </c>
-      <c r="E7" s="14">
-        <v>14</v>
-      </c>
-      <c r="F7" s="14" t="s">
-        <v>87</v>
-      </c>
-      <c r="G7" s="14" t="s">
-        <v>80</v>
-      </c>
-      <c r="H7" s="16" t="s">
-        <v>89</v>
-      </c>
-      <c r="I7" s="14" t="s">
-        <v>76</v>
-      </c>
-      <c r="J7" s="15" t="s">
-        <v>88</v>
+      <c r="J7" s="4" t="s">
+        <v>220</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A8" s="14">
-        <v>15</v>
-      </c>
-      <c r="B8" s="14" t="s">
-        <v>58</v>
-      </c>
-      <c r="C8" s="14" t="s">
-        <v>59</v>
-      </c>
-      <c r="D8" s="14" t="s">
-        <v>90</v>
-      </c>
-      <c r="E8" s="14">
-        <v>15</v>
-      </c>
-      <c r="F8" s="14" t="s">
-        <v>91</v>
-      </c>
-      <c r="G8" s="14" t="s">
-        <v>80</v>
-      </c>
-      <c r="H8" s="14" t="s">
-        <v>93</v>
-      </c>
-      <c r="I8" s="14" t="s">
-        <v>76</v>
-      </c>
-      <c r="J8" s="15" t="s">
-        <v>92</v>
+      <c r="A8" s="4">
+        <v>1</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>284</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E8" s="4">
+        <v>6</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="H8" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="I8" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="J8" s="4" t="s">
+        <v>221</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A9" s="6">
-        <v>9</v>
-      </c>
-      <c r="B9" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="D9" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="E9" s="6">
-        <v>4</v>
-      </c>
-      <c r="F9" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="G9" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="H9" s="6" t="s">
-        <v>108</v>
-      </c>
-      <c r="I9" s="6" t="s">
-        <v>109</v>
-      </c>
-      <c r="J9" s="6" t="s">
-        <v>110</v>
+      <c r="A9" s="4">
+        <v>1</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>284</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E9" s="4">
+        <v>6</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="H9" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="I9" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="J9" s="4" t="s">
+        <v>222</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A10" s="6">
-        <v>9</v>
-      </c>
-      <c r="B10" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="C10" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="D10" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="E10" s="6">
-        <v>4</v>
-      </c>
-      <c r="F10" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="G10" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="H10" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="I10" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="J10" s="6" t="s">
-        <v>64</v>
+      <c r="A10" s="4">
+        <v>1</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>284</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E10" s="4">
+        <v>6</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="H10" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="I10" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="J10" s="4" t="s">
+        <v>223</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A11" s="6">
-        <v>9</v>
-      </c>
-      <c r="B11" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="C11" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="D11" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="E11" s="6">
-        <v>4</v>
-      </c>
-      <c r="F11" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="G11" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="H11" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="I11" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="J11" s="6" t="s">
-        <v>51</v>
+      <c r="A11" s="4">
+        <v>1</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>284</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E11" s="4">
+        <v>6</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G11" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="H11" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="I11" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="J11" s="4" t="s">
+        <v>224</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A12" s="3">
-        <v>5</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="E12" s="3">
-        <v>12.5</v>
-      </c>
-      <c r="F12" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="G12" s="3" t="s">
+      <c r="A12" s="4">
+        <v>1</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>284</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E12" s="4">
+        <v>6</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G12" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="H12" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="I12" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="H12" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="I12" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="J12" s="3" t="s">
-        <v>126</v>
+      <c r="J12" s="4" t="s">
+        <v>225</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A13" s="3">
-        <v>5</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="E13" s="3">
-        <v>12.5</v>
-      </c>
-      <c r="F13" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="G13" s="3" t="s">
+      <c r="A13" s="4">
+        <v>1</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>284</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E13" s="4">
+        <v>6</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G13" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="H13" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="I13" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="H13" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="I13" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="J13" s="3" t="s">
-        <v>74</v>
+      <c r="J13" s="4" t="s">
+        <v>226</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A14" s="3">
-        <v>5</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="E14" s="3">
-        <v>12.5</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="G14" s="3" t="s">
+      <c r="A14" s="4">
+        <v>1</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>284</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E14" s="4">
+        <v>6</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G14" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="H14" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="I14" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="H14" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="I14" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="J14" s="3" t="s">
-        <v>79</v>
+      <c r="J14" s="4" t="s">
+        <v>227</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A15" s="4">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>41</v>
+        <v>284</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>96</v>
+        <v>10</v>
       </c>
       <c r="E15" s="4">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>97</v>
+        <v>11</v>
       </c>
       <c r="G15" s="4" t="s">
-        <v>98</v>
+        <v>12</v>
       </c>
       <c r="H15" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I15" s="4" t="s">
-        <v>76</v>
+        <v>22</v>
       </c>
       <c r="J15" s="4" t="s">
-        <v>99</v>
+        <v>228</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A16" s="4">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>41</v>
+        <v>284</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>104</v>
+        <v>10</v>
       </c>
       <c r="E16" s="4">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>105</v>
+        <v>11</v>
       </c>
       <c r="G16" s="4" t="s">
-        <v>106</v>
+        <v>12</v>
       </c>
       <c r="H16" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I16" s="4" t="s">
-        <v>76</v>
+        <v>22</v>
       </c>
       <c r="J16" s="4" t="s">
-        <v>107</v>
+        <v>229</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A17" s="4">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>41</v>
+        <v>284</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E17" s="4">
         <v>6</v>
       </c>
       <c r="F17" s="4" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G17" s="4" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H17" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I17" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="J17" s="4" t="s">
-        <v>222</v>
+        <v>230</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A18" s="4">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>41</v>
+        <v>284</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E18" s="4">
         <v>6</v>
       </c>
       <c r="F18" s="4" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G18" s="4" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H18" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I18" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="J18" s="4" t="s">
-        <v>223</v>
+        <v>231</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A19" s="4">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>41</v>
+        <v>284</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E19" s="4">
         <v>6</v>
       </c>
       <c r="F19" s="4" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G19" s="4" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H19" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I19" s="4" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="J19" s="4" t="s">
-        <v>224</v>
+        <v>232</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A20" s="4">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>41</v>
+        <v>284</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E20" s="4">
         <v>6</v>
       </c>
       <c r="F20" s="4" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G20" s="4" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H20" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I20" s="4" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="J20" s="4" t="s">
-        <v>225</v>
+        <v>233</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A21" s="4">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>41</v>
+        <v>284</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E21" s="4">
         <v>6</v>
       </c>
       <c r="F21" s="4" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G21" s="4" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H21" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I21" s="4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="J21" s="4" t="s">
-        <v>226</v>
+        <v>234</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A22" s="4">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>41</v>
+        <v>284</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E22" s="4">
         <v>6</v>
       </c>
       <c r="F22" s="4" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G22" s="4" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H22" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I22" s="4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="J22" s="4" t="s">
-        <v>227</v>
+        <v>235</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A23" s="4">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>41</v>
+        <v>284</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E23" s="4">
         <v>6</v>
       </c>
       <c r="F23" s="4" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G23" s="4" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H23" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I23" s="4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="J23" s="4" t="s">
-        <v>228</v>
+        <v>282</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A24" s="4">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>41</v>
+        <v>284</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E24" s="4">
         <v>6</v>
       </c>
       <c r="F24" s="4" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G24" s="4" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H24" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I24" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J24" s="4" t="s">
-        <v>229</v>
+        <v>236</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A25" s="4">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>41</v>
+        <v>284</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E25" s="4">
         <v>6</v>
       </c>
       <c r="F25" s="4" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G25" s="4" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H25" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I25" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J25" s="4" t="s">
-        <v>230</v>
+        <v>237</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A26" s="4">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>41</v>
+        <v>284</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E26" s="4">
         <v>6</v>
       </c>
       <c r="F26" s="4" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G26" s="4" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H26" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I26" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J26" s="4" t="s">
-        <v>231</v>
+        <v>238</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A27" s="4">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>41</v>
+        <v>284</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E27" s="4">
         <v>6</v>
       </c>
       <c r="F27" s="4" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G27" s="4" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H27" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I27" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J27" s="4" t="s">
-        <v>232</v>
+        <v>239</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A28" s="4">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>41</v>
+        <v>284</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E28" s="4">
         <v>6</v>
       </c>
       <c r="F28" s="4" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G28" s="4" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H28" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I28" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J28" s="4" t="s">
-        <v>233</v>
+        <v>240</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A29" s="4">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>41</v>
+        <v>284</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E29" s="4">
         <v>6</v>
       </c>
       <c r="F29" s="4" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G29" s="4" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H29" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I29" s="4" t="s">
-        <v>24</v>
+        <v>110</v>
       </c>
       <c r="J29" s="4" t="s">
-        <v>234</v>
+        <v>111</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A30" s="4">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>41</v>
+        <v>284</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E30" s="4">
         <v>6</v>
       </c>
       <c r="F30" s="4" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G30" s="4" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H30" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I30" s="4" t="s">
-        <v>24</v>
+        <v>112</v>
       </c>
       <c r="J30" s="4" t="s">
-        <v>235</v>
+        <v>245</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A31" s="4">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>41</v>
+        <v>284</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E31" s="4">
         <v>6</v>
       </c>
       <c r="F31" s="4" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G31" s="4" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H31" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I31" s="4" t="s">
-        <v>24</v>
+        <v>112</v>
       </c>
       <c r="J31" s="4" t="s">
-        <v>236</v>
+        <v>246</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A32" s="4">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>41</v>
+        <v>284</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E32" s="4">
         <v>6</v>
       </c>
       <c r="F32" s="4" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G32" s="4" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H32" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I32" s="4" t="s">
-        <v>24</v>
+        <v>114</v>
       </c>
       <c r="J32" s="4" t="s">
-        <v>237</v>
+        <v>116</v>
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A33" s="4">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>41</v>
+        <v>284</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E33" s="4">
         <v>6</v>
       </c>
       <c r="F33" s="4" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G33" s="4" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H33" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I33" s="4" t="s">
-        <v>24</v>
+        <v>127</v>
       </c>
       <c r="J33" s="4" t="s">
-        <v>238</v>
+        <v>259</v>
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A34" s="4">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>41</v>
+        <v>284</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E34" s="4">
         <v>6</v>
       </c>
       <c r="F34" s="4" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G34" s="4" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H34" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I34" s="4" t="s">
-        <v>24</v>
+        <v>127</v>
       </c>
       <c r="J34" s="4" t="s">
-        <v>239</v>
+        <v>260</v>
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A35" s="4">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>41</v>
+        <v>284</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E35" s="4">
         <v>6</v>
       </c>
       <c r="F35" s="4" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G35" s="4" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H35" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I35" s="4" t="s">
-        <v>24</v>
+        <v>127</v>
       </c>
       <c r="J35" s="4" t="s">
-        <v>240</v>
+        <v>261</v>
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A36" s="4">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>41</v>
+        <v>284</v>
       </c>
       <c r="D36" s="4" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E36" s="4">
         <v>6</v>
       </c>
       <c r="F36" s="4" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G36" s="4" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H36" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I36" s="4" t="s">
-        <v>24</v>
+        <v>127</v>
       </c>
       <c r="J36" s="4" t="s">
-        <v>287</v>
+        <v>262</v>
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A37" s="4">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>41</v>
+        <v>284</v>
       </c>
       <c r="D37" s="4" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E37" s="4">
         <v>6</v>
       </c>
       <c r="F37" s="4" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G37" s="4" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H37" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I37" s="4" t="s">
-        <v>25</v>
+        <v>127</v>
       </c>
       <c r="J37" s="4" t="s">
-        <v>241</v>
+        <v>263</v>
       </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A38" s="4">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>41</v>
+        <v>284</v>
       </c>
       <c r="D38" s="4" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E38" s="4">
         <v>6</v>
       </c>
       <c r="F38" s="4" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G38" s="4" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H38" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I38" s="4" t="s">
-        <v>25</v>
+        <v>127</v>
       </c>
       <c r="J38" s="4" t="s">
-        <v>242</v>
+        <v>264</v>
       </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A39" s="4">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>41</v>
+        <v>284</v>
       </c>
       <c r="D39" s="4" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E39" s="4">
         <v>6</v>
       </c>
       <c r="F39" s="4" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G39" s="4" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H39" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I39" s="4" t="s">
-        <v>25</v>
+        <v>127</v>
       </c>
       <c r="J39" s="4" t="s">
-        <v>243</v>
+        <v>265</v>
       </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A40" s="4">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>41</v>
+        <v>284</v>
       </c>
       <c r="D40" s="4" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E40" s="4">
         <v>6</v>
       </c>
       <c r="F40" s="4" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G40" s="4" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H40" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I40" s="4" t="s">
-        <v>25</v>
+        <v>127</v>
       </c>
       <c r="J40" s="4" t="s">
-        <v>244</v>
+        <v>266</v>
       </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A41" s="4">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>41</v>
+        <v>284</v>
       </c>
       <c r="D41" s="4" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E41" s="4">
         <v>6</v>
       </c>
       <c r="F41" s="4" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G41" s="4" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H41" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I41" s="4" t="s">
-        <v>25</v>
+        <v>127</v>
       </c>
       <c r="J41" s="4" t="s">
-        <v>245</v>
+        <v>267</v>
       </c>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A42" s="4">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>41</v>
+        <v>284</v>
       </c>
       <c r="D42" s="4" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E42" s="4">
         <v>6</v>
       </c>
       <c r="F42" s="4" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G42" s="4" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H42" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I42" s="4" t="s">
-        <v>114</v>
+        <v>127</v>
       </c>
       <c r="J42" s="4" t="s">
-        <v>115</v>
+        <v>268</v>
       </c>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A43" s="4">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>41</v>
+        <v>284</v>
       </c>
       <c r="D43" s="4" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E43" s="4">
         <v>6</v>
       </c>
       <c r="F43" s="4" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G43" s="4" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H43" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I43" s="4" t="s">
-        <v>116</v>
+        <v>127</v>
       </c>
       <c r="J43" s="4" t="s">
-        <v>250</v>
+        <v>269</v>
       </c>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A44" s="4">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>41</v>
+        <v>284</v>
       </c>
       <c r="D44" s="4" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E44" s="4">
         <v>6</v>
       </c>
       <c r="F44" s="4" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G44" s="4" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H44" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I44" s="4" t="s">
-        <v>116</v>
+        <v>127</v>
       </c>
       <c r="J44" s="4" t="s">
-        <v>251</v>
+        <v>270</v>
       </c>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A45" s="4">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>41</v>
+        <v>284</v>
       </c>
       <c r="D45" s="4" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E45" s="4">
         <v>6</v>
       </c>
       <c r="F45" s="4" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G45" s="4" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H45" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I45" s="4" t="s">
-        <v>118</v>
+        <v>127</v>
       </c>
       <c r="J45" s="4" t="s">
-        <v>120</v>
+        <v>271</v>
       </c>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A46" s="4">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B46" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C46" s="4" t="s">
+        <v>284</v>
+      </c>
+      <c r="D46" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="E46" s="4">
+        <v>5</v>
+      </c>
+      <c r="F46" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="C46" s="4" t="s">
+      <c r="G46" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="D46" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E46" s="4">
-        <v>6</v>
-      </c>
-      <c r="F46" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="G46" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="H46" s="4" t="s">
-        <v>15</v>
+      <c r="H46" s="12" t="s">
+        <v>42</v>
       </c>
       <c r="I46" s="4" t="s">
-        <v>131</v>
+        <v>32</v>
       </c>
       <c r="J46" s="4" t="s">
-        <v>264</v>
+        <v>43</v>
       </c>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A47" s="4">
+        <v>1</v>
+      </c>
+      <c r="B47" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C47" s="4" t="s">
+        <v>284</v>
+      </c>
+      <c r="D47" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="E47" s="4">
         <v>4</v>
       </c>
-      <c r="B47" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="C47" s="4" t="s">
+      <c r="F47" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="G47" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="D47" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E47" s="4">
-        <v>6</v>
-      </c>
-      <c r="F47" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="G47" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="H47" s="4" t="s">
-        <v>15</v>
+      <c r="H47" s="12" t="s">
+        <v>42</v>
       </c>
       <c r="I47" s="4" t="s">
-        <v>131</v>
+        <v>32</v>
       </c>
       <c r="J47" s="4" t="s">
-        <v>265</v>
+        <v>47</v>
       </c>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A48" s="4">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>41</v>
+        <v>284</v>
       </c>
       <c r="D48" s="4" t="s">
-        <v>12</v>
+        <v>96</v>
       </c>
       <c r="E48" s="4">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="F48" s="4" t="s">
-        <v>13</v>
+        <v>97</v>
       </c>
       <c r="G48" s="4" t="s">
-        <v>14</v>
+        <v>98</v>
       </c>
       <c r="H48" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I48" s="4" t="s">
-        <v>131</v>
+        <v>72</v>
       </c>
       <c r="J48" s="4" t="s">
-        <v>266</v>
+        <v>99</v>
       </c>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A49" s="4">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>41</v>
+        <v>284</v>
       </c>
       <c r="D49" s="4" t="s">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="E49" s="4">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="F49" s="4" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="G49" s="4" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="H49" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I49" s="4" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="J49" s="4" t="s">
-        <v>267</v>
+        <v>275</v>
       </c>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A50" s="4">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>41</v>
+        <v>284</v>
       </c>
       <c r="D50" s="4" t="s">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="E50" s="4">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="F50" s="4" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="G50" s="4" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="H50" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I50" s="4" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="J50" s="4" t="s">
-        <v>268</v>
+        <v>276</v>
       </c>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A51" s="4">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>41</v>
+        <v>284</v>
       </c>
       <c r="D51" s="4" t="s">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="E51" s="4">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="F51" s="4" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="G51" s="4" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="H51" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I51" s="4" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="J51" s="4" t="s">
-        <v>269</v>
+        <v>277</v>
       </c>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A52" s="4">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>41</v>
+        <v>284</v>
       </c>
       <c r="D52" s="4" t="s">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="E52" s="4">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="F52" s="4" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="G52" s="4" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="H52" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I52" s="4" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="J52" s="4" t="s">
-        <v>270</v>
+        <v>278</v>
       </c>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A53" s="4">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>41</v>
+        <v>284</v>
       </c>
       <c r="D53" s="4" t="s">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="E53" s="4">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="F53" s="4" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="G53" s="4" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="H53" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I53" s="4" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="J53" s="4" t="s">
-        <v>271</v>
+        <v>279</v>
       </c>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A54" s="4">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>41</v>
+        <v>284</v>
       </c>
       <c r="D54" s="4" t="s">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="E54" s="4">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="F54" s="4" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="G54" s="4" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="H54" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I54" s="4" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="J54" s="4" t="s">
-        <v>272</v>
+        <v>280</v>
       </c>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A55" s="4">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>41</v>
+        <v>284</v>
       </c>
       <c r="D55" s="4" t="s">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="E55" s="4">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="F55" s="4" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="G55" s="4" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="H55" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I55" s="4" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="J55" s="4" t="s">
-        <v>273</v>
+        <v>281</v>
       </c>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A56" s="4">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>41</v>
+        <v>284</v>
       </c>
       <c r="D56" s="4" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="E56" s="4">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="F56" s="4" t="s">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="G56" s="4" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="H56" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I56" s="4" t="s">
-        <v>131</v>
+        <v>23</v>
       </c>
       <c r="J56" s="4" t="s">
-        <v>274</v>
+        <v>241</v>
       </c>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A57" s="4">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>41</v>
+        <v>284</v>
       </c>
       <c r="D57" s="4" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="E57" s="4">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="F57" s="4" t="s">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="G57" s="4" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="H57" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I57" s="4" t="s">
-        <v>131</v>
+        <v>23</v>
       </c>
       <c r="J57" s="4" t="s">
-        <v>275</v>
+        <v>242</v>
       </c>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A58" s="4">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>41</v>
+        <v>284</v>
       </c>
       <c r="D58" s="4" t="s">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="E58" s="4">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="F58" s="4" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="G58" s="4" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="H58" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I58" s="4" t="s">
-        <v>131</v>
+        <v>105</v>
       </c>
       <c r="J58" s="4" t="s">
-        <v>276</v>
+        <v>109</v>
       </c>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A59" s="4">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>41</v>
+        <v>284</v>
       </c>
       <c r="D59" s="4" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="E59" s="4">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F59" s="4" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="G59" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="H59" s="12" t="s">
-        <v>45</v>
+        <v>28</v>
+      </c>
+      <c r="H59" s="4" t="s">
+        <v>13</v>
       </c>
       <c r="I59" s="4" t="s">
-        <v>34</v>
+        <v>114</v>
       </c>
       <c r="J59" s="4" t="s">
-        <v>46</v>
+        <v>248</v>
       </c>
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A60" s="4">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>41</v>
+        <v>284</v>
       </c>
       <c r="D60" s="4" t="s">
-        <v>49</v>
+        <v>29</v>
       </c>
       <c r="E60" s="4">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F60" s="4" t="s">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="G60" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="H60" s="12" t="s">
-        <v>45</v>
+        <v>28</v>
+      </c>
+      <c r="H60" s="4" t="s">
+        <v>13</v>
       </c>
       <c r="I60" s="4" t="s">
-        <v>34</v>
+        <v>114</v>
       </c>
       <c r="J60" s="4" t="s">
-        <v>51</v>
+        <v>247</v>
       </c>
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A61" s="4">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C61" s="4" t="s">
-        <v>41</v>
+        <v>284</v>
       </c>
       <c r="D61" s="4" t="s">
-        <v>100</v>
+        <v>26</v>
       </c>
       <c r="E61" s="4">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="F61" s="4" t="s">
-        <v>101</v>
+        <v>27</v>
       </c>
       <c r="G61" s="4" t="s">
-        <v>102</v>
+        <v>28</v>
       </c>
       <c r="H61" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I61" s="4" t="s">
-        <v>76</v>
+        <v>114</v>
       </c>
       <c r="J61" s="4" t="s">
-        <v>103</v>
+        <v>249</v>
       </c>
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A62" s="4">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C62" s="4" t="s">
-        <v>41</v>
+        <v>284</v>
       </c>
       <c r="D62" s="4" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="E62" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F62" s="4" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="G62" s="4" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H62" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I62" s="4" t="s">
-        <v>133</v>
+        <v>114</v>
       </c>
       <c r="J62" s="4" t="s">
-        <v>280</v>
+        <v>250</v>
       </c>
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A63" s="4">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>41</v>
+        <v>284</v>
       </c>
       <c r="D63" s="4" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="E63" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F63" s="4" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="G63" s="4" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H63" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I63" s="4" t="s">
-        <v>133</v>
+        <v>114</v>
       </c>
       <c r="J63" s="4" t="s">
-        <v>281</v>
+        <v>124</v>
       </c>
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A64" s="4">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C64" s="4" t="s">
-        <v>41</v>
+        <v>284</v>
       </c>
       <c r="D64" s="4" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="E64" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F64" s="4" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="G64" s="4" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H64" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I64" s="4" t="s">
-        <v>133</v>
+        <v>114</v>
       </c>
       <c r="J64" s="4" t="s">
-        <v>282</v>
+        <v>251</v>
       </c>
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A65" s="4">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>41</v>
+        <v>284</v>
       </c>
       <c r="D65" s="4" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="E65" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F65" s="4" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="G65" s="4" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H65" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I65" s="4" t="s">
-        <v>133</v>
+        <v>123</v>
       </c>
       <c r="J65" s="4" t="s">
-        <v>283</v>
+        <v>124</v>
       </c>
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A66" s="4">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C66" s="4" t="s">
-        <v>41</v>
+        <v>284</v>
       </c>
       <c r="D66" s="4" t="s">
-        <v>31</v>
+        <v>117</v>
       </c>
       <c r="E66" s="4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F66" s="4" t="s">
-        <v>32</v>
+        <v>126</v>
       </c>
       <c r="G66" s="4" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H66" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I66" s="4" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="J66" s="4" t="s">
-        <v>284</v>
+        <v>128</v>
       </c>
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A67" s="4">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C67" s="4" t="s">
-        <v>41</v>
+        <v>284</v>
       </c>
       <c r="D67" s="4" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E67" s="4">
         <v>2</v>
       </c>
       <c r="F67" s="4" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G67" s="4" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H67" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I67" s="4" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="J67" s="4" t="s">
-        <v>285</v>
+        <v>252</v>
       </c>
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A68" s="4">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C68" s="4" t="s">
-        <v>41</v>
+        <v>284</v>
       </c>
       <c r="D68" s="4" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E68" s="4">
         <v>2</v>
       </c>
       <c r="F68" s="4" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G68" s="4" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H68" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I68" s="4" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="J68" s="4" t="s">
-        <v>286</v>
+        <v>253</v>
       </c>
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A69" s="4">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C69" s="4" t="s">
-        <v>41</v>
+        <v>284</v>
       </c>
       <c r="D69" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="E69" s="4">
+        <v>2</v>
+      </c>
+      <c r="F69" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="G69" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="E69" s="4">
-        <v>1</v>
-      </c>
-      <c r="F69" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="G69" s="4" t="s">
-        <v>30</v>
-      </c>
       <c r="H69" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I69" s="4" t="s">
-        <v>25</v>
+        <v>127</v>
       </c>
       <c r="J69" s="4" t="s">
-        <v>246</v>
+        <v>254</v>
       </c>
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A70" s="4">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C70" s="4" t="s">
-        <v>41</v>
+        <v>284</v>
       </c>
       <c r="D70" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="E70" s="4">
+        <v>2</v>
+      </c>
+      <c r="F70" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="G70" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="E70" s="4">
-        <v>1</v>
-      </c>
-      <c r="F70" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="G70" s="4" t="s">
-        <v>30</v>
-      </c>
       <c r="H70" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I70" s="4" t="s">
-        <v>25</v>
+        <v>127</v>
       </c>
       <c r="J70" s="4" t="s">
-        <v>247</v>
+        <v>255</v>
       </c>
     </row>
     <row r="71" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A71" s="4">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C71" s="4" t="s">
-        <v>41</v>
+        <v>284</v>
       </c>
       <c r="D71" s="4" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E71" s="4">
         <v>2</v>
       </c>
       <c r="F71" s="4" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G71" s="4" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H71" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I71" s="4" t="s">
-        <v>109</v>
+        <v>127</v>
       </c>
       <c r="J71" s="4" t="s">
-        <v>113</v>
+        <v>256</v>
       </c>
     </row>
     <row r="72" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A72" s="4">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C72" s="4" t="s">
-        <v>41</v>
+        <v>284</v>
       </c>
       <c r="D72" s="4" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E72" s="4">
         <v>2</v>
       </c>
       <c r="F72" s="4" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G72" s="4" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H72" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I72" s="4" t="s">
-        <v>118</v>
+        <v>127</v>
       </c>
       <c r="J72" s="4" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
     </row>
     <row r="73" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A73" s="4">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C73" s="4" t="s">
-        <v>41</v>
+        <v>284</v>
       </c>
       <c r="D73" s="4" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E73" s="4">
         <v>2</v>
       </c>
       <c r="F73" s="4" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G73" s="4" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H73" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I73" s="4" t="s">
-        <v>118</v>
+        <v>127</v>
       </c>
       <c r="J73" s="4" t="s">
-        <v>252</v>
+        <v>258</v>
       </c>
     </row>
     <row r="74" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A74" s="4">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C74" s="4" t="s">
-        <v>41</v>
+        <v>284</v>
       </c>
       <c r="D74" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="E74" s="4">
+        <v>1</v>
+      </c>
+      <c r="F74" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="G74" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="E74" s="4">
-        <v>1</v>
-      </c>
-      <c r="F74" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="G74" s="4" t="s">
-        <v>30</v>
-      </c>
       <c r="H74" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I74" s="4" t="s">
-        <v>118</v>
+        <v>127</v>
       </c>
       <c r="J74" s="4" t="s">
-        <v>254</v>
+        <v>272</v>
       </c>
     </row>
     <row r="75" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A75" s="4">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C75" s="4" t="s">
-        <v>41</v>
+        <v>284</v>
       </c>
       <c r="D75" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="E75" s="4">
+        <v>1</v>
+      </c>
+      <c r="F75" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="G75" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="E75" s="4">
-        <v>1</v>
-      </c>
-      <c r="F75" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="G75" s="4" t="s">
-        <v>30</v>
-      </c>
       <c r="H75" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I75" s="4" t="s">
-        <v>118</v>
+        <v>127</v>
       </c>
       <c r="J75" s="4" t="s">
-        <v>255</v>
+        <v>273</v>
       </c>
     </row>
     <row r="76" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A76" s="4">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C76" s="4" t="s">
-        <v>41</v>
+        <v>284</v>
       </c>
       <c r="D76" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="E76" s="4">
+        <v>1</v>
+      </c>
+      <c r="F76" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="G76" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="E76" s="4">
-        <v>1</v>
-      </c>
-      <c r="F76" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="G76" s="4" t="s">
-        <v>30</v>
-      </c>
       <c r="H76" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I76" s="4" t="s">
-        <v>118</v>
+        <v>127</v>
       </c>
       <c r="J76" s="4" t="s">
-        <v>128</v>
+        <v>274</v>
       </c>
     </row>
     <row r="77" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A77" s="4">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B77" s="4" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C77" s="4" t="s">
-        <v>41</v>
+        <v>284</v>
       </c>
       <c r="D77" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="E77" s="4">
+        <v>1</v>
+      </c>
+      <c r="F77" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="G77" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="E77" s="4">
-        <v>1</v>
-      </c>
-      <c r="F77" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="G77" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="H77" s="4" t="s">
-        <v>15</v>
+      <c r="H77" s="12" t="s">
+        <v>130</v>
       </c>
       <c r="I77" s="4" t="s">
-        <v>118</v>
+        <v>131</v>
       </c>
       <c r="J77" s="4" t="s">
-        <v>256</v>
+        <v>132</v>
       </c>
     </row>
     <row r="78" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A78" s="4">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B78" s="4" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C78" s="4" t="s">
-        <v>41</v>
+        <v>284</v>
       </c>
       <c r="D78" s="4" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="E78" s="4">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="F78" s="4" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="G78" s="4" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="H78" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="I78" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="I78" s="4" t="s">
-        <v>127</v>
-      </c>
       <c r="J78" s="4" t="s">
-        <v>128</v>
+        <v>21</v>
       </c>
     </row>
     <row r="79" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A79" s="4">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C79" s="4" t="s">
-        <v>41</v>
+        <v>284</v>
       </c>
       <c r="D79" s="4" t="s">
-        <v>121</v>
+        <v>78</v>
       </c>
       <c r="E79" s="4">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="F79" s="4" t="s">
-        <v>130</v>
+        <v>79</v>
       </c>
       <c r="G79" s="4" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="H79" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I79" s="4" t="s">
-        <v>131</v>
+        <v>72</v>
       </c>
       <c r="J79" s="4" t="s">
-        <v>132</v>
+        <v>80</v>
       </c>
     </row>
     <row r="80" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A80" s="4">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B80" s="4" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C80" s="4" t="s">
-        <v>41</v>
+        <v>284</v>
       </c>
       <c r="D80" s="4" t="s">
-        <v>31</v>
+        <v>82</v>
       </c>
       <c r="E80" s="4">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="F80" s="4" t="s">
-        <v>32</v>
+        <v>83</v>
       </c>
       <c r="G80" s="4" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="H80" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I80" s="4" t="s">
-        <v>131</v>
+        <v>72</v>
       </c>
       <c r="J80" s="4" t="s">
-        <v>257</v>
+        <v>84</v>
       </c>
     </row>
     <row r="81" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A81" s="4">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C81" s="4" t="s">
-        <v>41</v>
+        <v>284</v>
       </c>
       <c r="D81" s="4" t="s">
-        <v>31</v>
+        <v>86</v>
       </c>
       <c r="E81" s="4">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="F81" s="4" t="s">
-        <v>32</v>
+        <v>87</v>
       </c>
       <c r="G81" s="4" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="H81" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I81" s="4" t="s">
-        <v>131</v>
+        <v>72</v>
       </c>
       <c r="J81" s="4" t="s">
-        <v>258</v>
+        <v>88</v>
       </c>
     </row>
     <row r="82" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A82" s="4">
+        <v>1</v>
+      </c>
+      <c r="B82" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C82" s="4" t="s">
+        <v>284</v>
+      </c>
+      <c r="D82" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E82" s="4">
+        <v>16</v>
+      </c>
+      <c r="F82" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="G82" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="H82" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="I82" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="J82" s="4" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A83" s="3">
+        <v>5</v>
+      </c>
+      <c r="B83" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C83" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D83" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="E83" s="3">
+        <v>12.5</v>
+      </c>
+      <c r="F83" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="G83" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="H83" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="I83" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="J83" s="3" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A84" s="3">
+        <v>5</v>
+      </c>
+      <c r="B84" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C84" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D84" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="E84" s="3">
+        <v>12.5</v>
+      </c>
+      <c r="F84" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="G84" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="H84" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="I84" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="J84" s="3" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A85" s="3">
+        <v>5</v>
+      </c>
+      <c r="B85" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C85" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D85" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="E85" s="3">
+        <v>12.5</v>
+      </c>
+      <c r="F85" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="G85" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="H85" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="I85" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="J85" s="3" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A86" s="6">
+        <v>9</v>
+      </c>
+      <c r="B86" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="C86" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="D86" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="E86" s="6">
         <v>4</v>
       </c>
-      <c r="B82" s="4" t="s">
+      <c r="F86" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="G86" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="H86" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="I86" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="J86" s="6" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A87" s="6">
+        <v>9</v>
+      </c>
+      <c r="B87" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="C87" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="D87" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="E87" s="6">
+        <v>4</v>
+      </c>
+      <c r="F87" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="G87" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="H87" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="I87" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="J87" s="6" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A88" s="6">
+        <v>9</v>
+      </c>
+      <c r="B88" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="C88" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="D88" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="E88" s="6">
+        <v>4</v>
+      </c>
+      <c r="F88" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="G88" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="H88" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="I88" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="J88" s="6" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A89" s="5">
+        <v>10</v>
+      </c>
+      <c r="B89" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C89" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D89" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E89" s="5">
+        <v>6</v>
+      </c>
+      <c r="F89" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="G89" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="H89" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="I89" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="J89" s="5" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A90" s="5">
+        <v>10</v>
+      </c>
+      <c r="B90" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C90" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D90" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E90" s="5">
+        <v>6</v>
+      </c>
+      <c r="F90" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="G90" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="H90" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="I90" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="J90" s="5" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A91" s="5">
+        <v>10</v>
+      </c>
+      <c r="B91" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C91" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D91" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E91" s="5">
+        <v>6</v>
+      </c>
+      <c r="F91" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="G91" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="H91" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="I91" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="J91" s="5" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A92" s="18">
+        <v>15</v>
+      </c>
+      <c r="B92" s="18" t="s">
+        <v>54</v>
+      </c>
+      <c r="C92" s="18" t="s">
+        <v>55</v>
+      </c>
+      <c r="D92" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="E92" s="18">
+        <v>1</v>
+      </c>
+      <c r="F92" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="G92" s="18" t="s">
+        <v>56</v>
+      </c>
+      <c r="H92" s="18">
+        <v>-200</v>
+      </c>
+      <c r="I92" s="18" t="s">
+        <v>57</v>
+      </c>
+      <c r="J92" s="17" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A93" s="18">
+        <v>15</v>
+      </c>
+      <c r="B93" s="18" t="s">
+        <v>54</v>
+      </c>
+      <c r="C93" s="18" t="s">
+        <v>55</v>
+      </c>
+      <c r="D93" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="E93" s="18">
+        <v>1</v>
+      </c>
+      <c r="F93" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="G93" s="18" t="s">
+        <v>56</v>
+      </c>
+      <c r="H93" s="18">
+        <v>-200</v>
+      </c>
+      <c r="I93" s="18" t="s">
+        <v>57</v>
+      </c>
+      <c r="J93" s="17" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A94" s="14">
+        <v>15</v>
+      </c>
+      <c r="B94" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="C94" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="D94" s="14" t="s">
+        <v>78</v>
+      </c>
+      <c r="E94" s="14">
+        <v>13</v>
+      </c>
+      <c r="F94" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="G94" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="H94" s="14" t="s">
+        <v>81</v>
+      </c>
+      <c r="I94" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="J94" s="15" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A95" s="14">
+        <v>15</v>
+      </c>
+      <c r="B95" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="C95" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="D95" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="E95" s="14">
+        <v>16</v>
+      </c>
+      <c r="F95" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="G95" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="H95" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="I95" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="J95" s="15" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A96" s="14">
+        <v>15</v>
+      </c>
+      <c r="B96" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="C96" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="D96" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="E96" s="14">
+        <v>12.5</v>
+      </c>
+      <c r="F96" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="G96" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="H96" s="16" t="s">
+        <v>77</v>
+      </c>
+      <c r="I96" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="J96" s="15" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A97" s="14">
+        <v>15</v>
+      </c>
+      <c r="B97" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="C97" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="D97" s="14" t="s">
+        <v>82</v>
+      </c>
+      <c r="E97" s="14">
+        <v>14</v>
+      </c>
+      <c r="F97" s="14" t="s">
+        <v>83</v>
+      </c>
+      <c r="G97" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="H97" s="16" t="s">
+        <v>85</v>
+      </c>
+      <c r="I97" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="J97" s="15" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A98" s="14">
+        <v>15</v>
+      </c>
+      <c r="B98" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="C98" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="D98" s="14" t="s">
+        <v>86</v>
+      </c>
+      <c r="E98" s="14">
+        <v>15</v>
+      </c>
+      <c r="F98" s="14" t="s">
+        <v>87</v>
+      </c>
+      <c r="G98" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="H98" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="I98" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="J98" s="15" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A99" s="7">
+        <v>17</v>
+      </c>
+      <c r="B99" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C99" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D99" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="E99" s="7">
+        <v>5</v>
+      </c>
+      <c r="F99" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="C82" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="D82" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="E82" s="4">
-        <v>2</v>
-      </c>
-      <c r="F82" s="4" t="s">
+      <c r="G99" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="H99" s="7">
+        <v>20713</v>
+      </c>
+      <c r="I99" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="G82" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="H82" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="I82" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="J82" s="4" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A83" s="4">
+      <c r="J99" s="7" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A100" s="7">
+        <v>17</v>
+      </c>
+      <c r="B100" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C100" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D100" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="E100" s="7">
+        <v>5</v>
+      </c>
+      <c r="F100" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="G100" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="H100" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="I100" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="J100" s="7" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A101" s="8">
+        <v>17</v>
+      </c>
+      <c r="B101" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C101" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D101" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="E101" s="8">
         <v>4</v>
       </c>
-      <c r="B83" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="C83" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="D83" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="E83" s="4">
-        <v>2</v>
-      </c>
-      <c r="F83" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="G83" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="H83" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="I83" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="J83" s="4" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A84" s="4">
+      <c r="F101" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="G101" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="H101" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="I101" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="J101" s="8" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="102" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A102" s="8">
+        <v>17</v>
+      </c>
+      <c r="B102" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C102" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D102" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="E102" s="8">
         <v>4</v>
       </c>
-      <c r="B84" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="C84" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="D84" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="E84" s="4">
-        <v>2</v>
-      </c>
-      <c r="F84" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="G84" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="H84" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="I84" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="J84" s="4" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="85" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A85" s="4">
-        <v>4</v>
-      </c>
-      <c r="B85" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="C85" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="D85" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="E85" s="4">
-        <v>2</v>
-      </c>
-      <c r="F85" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="G85" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="H85" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="I85" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="J85" s="4" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="86" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A86" s="4">
-        <v>4</v>
-      </c>
-      <c r="B86" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="C86" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="D86" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="E86" s="4">
-        <v>2</v>
-      </c>
-      <c r="F86" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="G86" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="H86" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="I86" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="J86" s="4" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="87" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A87" s="4">
-        <v>4</v>
-      </c>
-      <c r="B87" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="C87" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="D87" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="E87" s="4">
-        <v>1</v>
-      </c>
-      <c r="F87" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="G87" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="H87" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="I87" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="J87" s="4" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="88" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A88" s="4">
-        <v>4</v>
-      </c>
-      <c r="B88" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="C88" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="D88" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="E88" s="4">
-        <v>1</v>
-      </c>
-      <c r="F88" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="G88" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="H88" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="I88" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="J88" s="4" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="89" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A89" s="4">
-        <v>4</v>
-      </c>
-      <c r="B89" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="C89" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="D89" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="E89" s="4">
-        <v>1</v>
-      </c>
-      <c r="F89" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="G89" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="H89" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="I89" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="J89" s="4" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="90" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A90" s="4">
-        <v>4</v>
-      </c>
-      <c r="B90" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="C90" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="D90" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="E90" s="4">
-        <v>1</v>
-      </c>
-      <c r="F90" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="G90" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="H90" s="12" t="s">
-        <v>134</v>
-      </c>
-      <c r="I90" s="4" t="s">
-        <v>135</v>
-      </c>
-      <c r="J90" s="4" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="91" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A91" s="4">
-        <v>4</v>
-      </c>
-      <c r="B91" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="C91" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="D91" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="E91" s="4">
-        <v>15</v>
-      </c>
-      <c r="F91" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="G91" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="H91" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="I91" s="4" t="s">
+      <c r="F102" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="G102" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="H102" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="I102" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="J102" s="8" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="103" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A103" s="8">
         <v>17</v>
       </c>
-      <c r="J91" s="4" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="92" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A92" s="4">
-        <v>4</v>
-      </c>
-      <c r="B92" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="C92" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="D92" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="E92" s="4">
-        <v>13</v>
-      </c>
-      <c r="F92" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="G92" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="H92" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="I92" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="J92" s="4" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="93" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A93" s="4">
-        <v>4</v>
-      </c>
-      <c r="B93" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="C93" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="D93" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="E93" s="4">
-        <v>14</v>
-      </c>
-      <c r="F93" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="G93" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="H93" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="I93" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="J93" s="4" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="94" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A94" s="4">
-        <v>4</v>
-      </c>
-      <c r="B94" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="C94" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="D94" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="E94" s="4">
-        <v>15</v>
-      </c>
-      <c r="F94" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="G94" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="H94" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="I94" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="J94" s="4" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="95" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A95" s="4">
-        <v>4</v>
-      </c>
-      <c r="B95" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="C95" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="D95" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="E95" s="4">
-        <v>16</v>
-      </c>
-      <c r="F95" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="G95" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="H95" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="I95" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="J95" s="4" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="96" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A96" s="7">
-        <v>17</v>
-      </c>
-      <c r="B96" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="C96" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="D96" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="E96" s="7">
-        <v>5</v>
-      </c>
-      <c r="F96" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="G96" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="H96" s="7">
-        <v>20713</v>
-      </c>
-      <c r="I96" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="J96" s="7" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="97" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A97" s="7">
-        <v>17</v>
-      </c>
-      <c r="B97" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="C97" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="D97" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="E97" s="7">
-        <v>5</v>
-      </c>
-      <c r="F97" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="G97" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="H97" s="7" t="s">
+      <c r="B103" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C103" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D103" s="8" t="s">
         <v>117</v>
       </c>
-      <c r="I97" s="7" t="s">
+      <c r="E103" s="8">
+        <v>3</v>
+      </c>
+      <c r="F103" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="G103" s="8" t="s">
         <v>118</v>
       </c>
-      <c r="J97" s="7" t="s">
+      <c r="H103" s="8" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="98" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A98" s="5">
-        <v>10</v>
-      </c>
-      <c r="B98" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="C98" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="D98" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="E98" s="5">
-        <v>6</v>
-      </c>
-      <c r="F98" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="G98" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="H98" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="I98" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="J98" s="5" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="99" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A99" s="5">
-        <v>10</v>
-      </c>
-      <c r="B99" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="C99" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="D99" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="E99" s="5">
-        <v>6</v>
-      </c>
-      <c r="F99" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="G99" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="H99" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="I99" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="J99" s="5" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="100" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A100" s="5">
-        <v>10</v>
-      </c>
-      <c r="B100" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="C100" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="D100" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="E100" s="5">
-        <v>6</v>
-      </c>
-      <c r="F100" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="G100" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="H100" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="I100" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="J100" s="5" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="101" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A101" s="13">
-        <v>19</v>
-      </c>
-      <c r="B101" s="13" t="s">
-        <v>56</v>
-      </c>
-      <c r="C101" s="13" t="s">
-        <v>53</v>
-      </c>
-      <c r="D101" s="13" t="s">
-        <v>49</v>
-      </c>
-      <c r="E101" s="13">
-        <v>4</v>
-      </c>
-      <c r="F101" s="13" t="s">
-        <v>50</v>
-      </c>
-      <c r="G101" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="H101" s="13" t="s">
-        <v>112</v>
-      </c>
-      <c r="I101" s="13" t="s">
-        <v>109</v>
-      </c>
-      <c r="J101" s="13" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="102" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A102" s="13">
-        <v>19</v>
-      </c>
-      <c r="B102" s="13" t="s">
-        <v>56</v>
-      </c>
-      <c r="C102" s="13" t="s">
-        <v>53</v>
-      </c>
-      <c r="D102" s="13" t="s">
-        <v>49</v>
-      </c>
-      <c r="E102" s="13">
-        <v>4</v>
-      </c>
-      <c r="F102" s="13" t="s">
-        <v>50</v>
-      </c>
-      <c r="G102" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="H102" s="13" t="s">
-        <v>62</v>
-      </c>
-      <c r="I102" s="13" t="s">
-        <v>63</v>
-      </c>
-      <c r="J102" s="13" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="103" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A103" s="13">
-        <v>19</v>
-      </c>
-      <c r="B103" s="13" t="s">
-        <v>56</v>
-      </c>
-      <c r="C103" s="13" t="s">
-        <v>53</v>
-      </c>
-      <c r="D103" s="13" t="s">
-        <v>49</v>
-      </c>
-      <c r="E103" s="13">
-        <v>4</v>
-      </c>
-      <c r="F103" s="13" t="s">
-        <v>50</v>
-      </c>
-      <c r="G103" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="H103" s="13" t="s">
-        <v>55</v>
-      </c>
-      <c r="I103" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="J103" s="13" t="s">
-        <v>51</v>
+      <c r="I103" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="J103" s="8" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="104" spans="1:10" x14ac:dyDescent="0.35">
@@ -6277,130 +6248,129 @@
         <v>17</v>
       </c>
       <c r="B104" s="8" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C104" s="8" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D104" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="E104" s="8">
+        <v>2</v>
+      </c>
+      <c r="F104" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="G104" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="H104" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="I104" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="J104" s="8" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="105" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A105" s="13">
+        <v>19</v>
+      </c>
+      <c r="B105" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="C105" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="E104" s="8">
+      <c r="D105" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="E105" s="13">
         <v>4</v>
       </c>
-      <c r="F104" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="G104" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="H104" s="8" t="s">
-        <v>111</v>
-      </c>
-      <c r="I104" s="8" t="s">
-        <v>109</v>
-      </c>
-      <c r="J104" s="8" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="105" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A105" s="8">
-        <v>17</v>
-      </c>
-      <c r="B105" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="C105" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="D105" s="8" t="s">
+      <c r="F105" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="G105" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="H105" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="I105" s="13" t="s">
+        <v>105</v>
+      </c>
+      <c r="J105" s="13" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="106" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A106" s="13">
+        <v>19</v>
+      </c>
+      <c r="B106" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="C106" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="E105" s="8">
+      <c r="D106" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="E106" s="13">
         <v>4</v>
       </c>
-      <c r="F105" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="G105" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="H105" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="I105" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="J105" s="8" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="106" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A106" s="8">
-        <v>17</v>
-      </c>
-      <c r="B106" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="C106" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="D106" s="8" t="s">
-        <v>121</v>
-      </c>
-      <c r="E106" s="8">
-        <v>3</v>
-      </c>
-      <c r="F106" s="8" t="s">
-        <v>129</v>
-      </c>
-      <c r="G106" s="8" t="s">
-        <v>122</v>
-      </c>
-      <c r="H106" s="8" t="s">
-        <v>123</v>
-      </c>
-      <c r="I106" s="8" t="s">
-        <v>127</v>
-      </c>
-      <c r="J106" s="8" t="s">
-        <v>124</v>
+      <c r="F106" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="G106" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="H106" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="I106" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="J106" s="13" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="107" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A107" s="8">
-        <v>17</v>
-      </c>
-      <c r="B107" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="C107" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="D107" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="E107" s="8">
-        <v>2</v>
-      </c>
-      <c r="F107" s="8" t="s">
+      <c r="A107" s="13">
+        <v>19</v>
+      </c>
+      <c r="B107" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="C107" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="D107" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="E107" s="13">
+        <v>4</v>
+      </c>
+      <c r="F107" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="G107" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="H107" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="I107" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="G107" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="H107" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="I107" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="J107" s="8" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="108" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+      <c r="J107" s="13" t="s">
+        <v>47</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
